--- a/project-root/uploads/alumnos2.xlsx
+++ b/project-root/uploads/alumnos2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df88bd836257aa85/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{5E549905-205A-4F3A-91D9-BD1B9F910059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505940A8-5E77-4D83-874B-0694FB2AF335}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="8_{5E549905-205A-4F3A-91D9-BD1B9F910059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C3BBDE-91C6-4B84-8C5D-6DE9D38F44B9}"/>
   <bookViews>
-    <workbookView xWindow="9612" yWindow="2136" windowWidth="12564" windowHeight="9372" xr2:uid="{8318526B-713F-4E5F-A5C2-8FC03A93E6B2}"/>
+    <workbookView xWindow="5292" yWindow="1548" windowWidth="17064" windowHeight="9372" xr2:uid="{8318526B-713F-4E5F-A5C2-8FC03A93E6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="198">
   <si>
     <t>nombre</t>
   </si>
@@ -116,44 +116,536 @@
     <t>20M002</t>
   </si>
   <si>
-    <t>21M004</t>
-  </si>
-  <si>
     <t>20M061</t>
   </si>
   <si>
-    <t>21M016</t>
-  </si>
-  <si>
     <t>20M053</t>
   </si>
   <si>
-    <t>20M088</t>
-  </si>
-  <si>
-    <t>21M001</t>
-  </si>
-  <si>
-    <t>21M079</t>
-  </si>
-  <si>
     <t>20M045</t>
   </si>
   <si>
-    <t>21M003</t>
-  </si>
-  <si>
     <t>UPM</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Nacho</t>
+  </si>
+  <si>
+    <t>Borja</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Inés</t>
+  </si>
+  <si>
+    <t>Mónica</t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Susana</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Vendrell</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Llamas</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>Suárez</t>
+  </si>
+  <si>
+    <t>Toledano</t>
+  </si>
+  <si>
+    <t>Usaola</t>
+  </si>
+  <si>
+    <t>Conde</t>
+  </si>
+  <si>
+    <t>Giménez</t>
+  </si>
+  <si>
+    <t>Barrena</t>
+  </si>
+  <si>
+    <t>Mediavilla</t>
+  </si>
+  <si>
+    <t>Alum</t>
+  </si>
+  <si>
+    <t>Garzón</t>
+  </si>
+  <si>
+    <t>Vélez</t>
+  </si>
+  <si>
+    <t>Montero</t>
+  </si>
+  <si>
+    <t>Beltrán</t>
+  </si>
+  <si>
+    <t>Estrán</t>
+  </si>
+  <si>
+    <t>Buyo</t>
+  </si>
+  <si>
+    <t>Corominas</t>
+  </si>
+  <si>
+    <t>Riesgo</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Molinero</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Mateos</t>
+  </si>
+  <si>
+    <t>Conrado</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Quintero</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Marín</t>
+  </si>
+  <si>
+    <t>Casanova</t>
+  </si>
+  <si>
+    <t>20M011</t>
+  </si>
+  <si>
+    <t>20M003</t>
+  </si>
+  <si>
+    <t>20M015</t>
+  </si>
+  <si>
+    <t>20M022</t>
+  </si>
+  <si>
+    <t>20M047</t>
+  </si>
+  <si>
+    <t>20M044</t>
+  </si>
+  <si>
+    <t>20M036</t>
+  </si>
+  <si>
+    <t>20M014</t>
+  </si>
+  <si>
+    <t>20M031</t>
+  </si>
+  <si>
+    <t>20M041</t>
+  </si>
+  <si>
+    <t>20M051</t>
+  </si>
+  <si>
+    <t>20M013</t>
+  </si>
+  <si>
+    <t>20M066</t>
+  </si>
+  <si>
+    <t>20M067</t>
+  </si>
+  <si>
+    <t>20M023</t>
+  </si>
+  <si>
+    <t>20M055</t>
+  </si>
+  <si>
+    <t>20M048</t>
+  </si>
+  <si>
+    <t>20M052</t>
+  </si>
+  <si>
+    <t>20M012</t>
+  </si>
+  <si>
+    <t>20M009</t>
+  </si>
+  <si>
+    <t>20M008</t>
+  </si>
+  <si>
+    <t>20M025</t>
+  </si>
+  <si>
+    <t>20M007</t>
+  </si>
+  <si>
+    <t>20M010</t>
+  </si>
+  <si>
+    <t>20M001</t>
+  </si>
+  <si>
+    <t>20M004</t>
+  </si>
+  <si>
+    <t>20M005</t>
+  </si>
+  <si>
+    <t>20M006</t>
+  </si>
+  <si>
+    <t>20M016</t>
+  </si>
+  <si>
+    <t>20M017</t>
+  </si>
+  <si>
+    <t>20M018</t>
+  </si>
+  <si>
+    <t>20M019</t>
+  </si>
+  <si>
+    <t>20M020</t>
+  </si>
+  <si>
+    <t>20M021</t>
+  </si>
+  <si>
+    <t>20M024</t>
+  </si>
+  <si>
+    <t>20M026</t>
+  </si>
+  <si>
+    <t>20M027</t>
+  </si>
+  <si>
+    <t>20M028</t>
+  </si>
+  <si>
+    <t>20M029</t>
+  </si>
+  <si>
+    <t>20M030</t>
+  </si>
+  <si>
+    <t>20M032</t>
+  </si>
+  <si>
+    <t>20M033</t>
+  </si>
+  <si>
+    <t>20M034</t>
+  </si>
+  <si>
+    <t>20M035</t>
+  </si>
+  <si>
+    <t>20M037</t>
+  </si>
+  <si>
+    <t>20M038</t>
+  </si>
+  <si>
+    <t>20M039</t>
+  </si>
+  <si>
+    <t>20M040</t>
+  </si>
+  <si>
+    <t>20M042</t>
+  </si>
+  <si>
+    <t>20M043</t>
+  </si>
+  <si>
+    <t>20M046</t>
+  </si>
+  <si>
+    <t>20M049</t>
+  </si>
+  <si>
+    <t>20M050</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Mencía</t>
+  </si>
+  <si>
+    <t>Jimena</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Triana</t>
+  </si>
+  <si>
+    <t>Macarena</t>
+  </si>
+  <si>
+    <t>Pelayo</t>
+  </si>
+  <si>
+    <t>Rocío</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Candela</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Bosco</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>Núñez</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Delgado</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Garrido</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Cano</t>
+  </si>
+  <si>
+    <t>Prieto</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>Calvo</t>
+  </si>
+  <si>
+    <t>Vidal</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t>20M054</t>
+  </si>
+  <si>
+    <t>20M056</t>
+  </si>
+  <si>
+    <t>20M057</t>
+  </si>
+  <si>
+    <t>20M058</t>
+  </si>
+  <si>
+    <t>20M059</t>
+  </si>
+  <si>
+    <t>20M060</t>
+  </si>
+  <si>
+    <t>20M062</t>
+  </si>
+  <si>
+    <t>20M063</t>
+  </si>
+  <si>
+    <t>20M064</t>
+  </si>
+  <si>
+    <t>20M065</t>
+  </si>
+  <si>
+    <t>20M068</t>
+  </si>
+  <si>
+    <t>20M069</t>
+  </si>
+  <si>
+    <t>20M070</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>hombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,6 +688,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384451D8-6403-484F-8660-487720FE210C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +1035,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -548,16 +1050,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -565,16 +1073,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -582,16 +1096,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -599,16 +1119,22 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -616,16 +1142,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -633,16 +1165,22 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -650,16 +1188,22 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -667,16 +1211,22 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -684,16 +1234,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -701,16 +1257,1403 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="E11">
-        <v>4</v>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>